--- a/perguntas_jeopardy.xlsx
+++ b/perguntas_jeopardy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1075293\Documents\Nova pasta (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1075293\Documents\Projeto_Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE902127-EDCD-495E-AB4B-2203EC91CD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3BBEA5-6FD6-4C0E-AF47-29347C2C0832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="112">
   <si>
     <t>Categoria</t>
   </si>
@@ -55,30 +55,6 @@
     <t>Lógica de Programação e Algoritmos</t>
   </si>
   <si>
-    <t>Qual linguagem é usada para estruturar páginas web?</t>
-  </si>
-  <si>
-    <t>Qual linguagem define o estilo visual de páginas web?</t>
-  </si>
-  <si>
-    <t>Qual linguagem de programação é usada para interatividade no navegador?</t>
-  </si>
-  <si>
-    <t>Qual biblioteca JavaScript é famosa para construção de interfaces reativas?</t>
-  </si>
-  <si>
-    <t>Qual linguagem é muito usada para programação de servidores?</t>
-  </si>
-  <si>
-    <t>Qual protocolo é usado para comunicação cliente-servidor?</t>
-  </si>
-  <si>
-    <t>Qual arquitetura separa Back-End, Front-End e Banco de Dados?</t>
-  </si>
-  <si>
-    <t>Qual tecnologia permite comunicação assíncrona entre cliente e servidor sem recarregar a página?</t>
-  </si>
-  <si>
     <t>Qual é o sistema operacional móvel desenvolvido pelo Google?</t>
   </si>
   <si>
@@ -118,9 +94,6 @@
     <t>Qual linguagem de marcação é usada para estruturar documentos na internet?</t>
   </si>
   <si>
-    <t>Qual linguagem de marcação é usada para formatar documentos científicos?</t>
-  </si>
-  <si>
     <t>O que é Markdown?</t>
   </si>
   <si>
@@ -139,18 +112,6 @@
     <t>O que é HTML?</t>
   </si>
   <si>
-    <t>O que é CSS?</t>
-  </si>
-  <si>
-    <t>O que é React?</t>
-  </si>
-  <si>
-    <t>O que é PHP?</t>
-  </si>
-  <si>
-    <t>O que é HTTP?</t>
-  </si>
-  <si>
     <t>O que é Android?</t>
   </si>
   <si>
@@ -163,15 +124,6 @@
     <t>O que é Scrum?</t>
   </si>
   <si>
-    <t>O que é JavaScript?</t>
-  </si>
-  <si>
-    <t>O que é MVC (Model-View-Controller)?</t>
-  </si>
-  <si>
-    <t>O que é AJAX?</t>
-  </si>
-  <si>
     <t>O que é Kotlin?</t>
   </si>
   <si>
@@ -199,9 +151,6 @@
     <t>O que é XML?</t>
   </si>
   <si>
-    <t>O que é LaTeX?</t>
-  </si>
-  <si>
     <t>O que é uma linguagem de marcação leve?</t>
   </si>
   <si>
@@ -218,6 +167,195 @@
   </si>
   <si>
     <t>Qual diagrama é responsável pela representação das interações entre usuários e o sistema?</t>
+  </si>
+  <si>
+    <t>Sistemas Operacionais</t>
+  </si>
+  <si>
+    <t>O que é um sistema operacional?</t>
+  </si>
+  <si>
+    <t>O que é uma máquina virtual?</t>
+  </si>
+  <si>
+    <t>Arquitetura de Redes com IoT</t>
+  </si>
+  <si>
+    <t>O que é uma topologia de rede?</t>
+  </si>
+  <si>
+    <t>O que é o protocolo MQTT?</t>
+  </si>
+  <si>
+    <t>Como a arquitetura de hardware influencia o desempenho de dispositivos IoT?</t>
+  </si>
+  <si>
+    <t>Levantamento de Requisitos</t>
+  </si>
+  <si>
+    <t>O que é um requisito funcional?</t>
+  </si>
+  <si>
+    <t>O que é a técnica de entrevista no levantamento de requisitos?</t>
+  </si>
+  <si>
+    <t>Diferença entre organização visual e organização de dados.</t>
+  </si>
+  <si>
+    <t>Qual a diferença entre HTML e XML?</t>
+  </si>
+  <si>
+    <t>O que é uma VPN?</t>
+  </si>
+  <si>
+    <t>O que é o software que gerencia o hardware e os recursos do computador?</t>
+  </si>
+  <si>
+    <t>O que é um ambiente de simulação que executa sistemas operacionais isoladamente?</t>
+  </si>
+  <si>
+    <t>O que é uma rede privada virtual que cria conexão segura pela internet?</t>
+  </si>
+  <si>
+    <t>Como o firewall nativo contribui para a segurança do sistema?</t>
+  </si>
+  <si>
+    <t>O que é a função do firewall nativo?</t>
+  </si>
+  <si>
+    <t>O que define a forma como os dispositivos estão organizados em uma rede?</t>
+  </si>
+  <si>
+    <t>Qual é a principal função de um roteador em uma rede?</t>
+  </si>
+  <si>
+    <t>Qual a função de um roteador?</t>
+  </si>
+  <si>
+    <t>O que é o protocolo leve de mensagens usado em IoT?</t>
+  </si>
+  <si>
+    <t>O que é a influência da arquitetura de hardware em IoT?</t>
+  </si>
+  <si>
+    <t>O que é a parte do sistema que processa dados e lógica de negócio?</t>
+  </si>
+  <si>
+    <t>O que é o Back-End?</t>
+  </si>
+  <si>
+    <t>O que é uma interface que permite comunicação entre sistemas?</t>
+  </si>
+  <si>
+    <t>O que é uma API?</t>
+  </si>
+  <si>
+    <t>O que é o sistema que registra alterações feitas no código?</t>
+  </si>
+  <si>
+    <t>O que é o controle de versão?</t>
+  </si>
+  <si>
+    <t>Quais práticas garantem segurança no desenvolvimento back-end?</t>
+  </si>
+  <si>
+    <t>O que é a segurança no desenvolvimento back-end?</t>
+  </si>
+  <si>
+    <t>O que é a parte visual de uma aplicação com a qual o usuário interage?</t>
+  </si>
+  <si>
+    <t>O que é o Front-End?</t>
+  </si>
+  <si>
+    <t>O que é a linguagem que adiciona interatividade a páginas web?</t>
+  </si>
+  <si>
+    <t>O que é o JavaScript?</t>
+  </si>
+  <si>
+    <t>O que é a capacidade de adaptação de páginas a diferentes dispositivos?</t>
+  </si>
+  <si>
+    <t>O que é responsividade em páginas web?</t>
+  </si>
+  <si>
+    <t>Como a experiência do usuário (UX) influencia o desenvolvimento Front-End?</t>
+  </si>
+  <si>
+    <t>O que é o impacto do UX no Front-End?</t>
+  </si>
+  <si>
+    <t>Internet das Coisas (IoT)</t>
+  </si>
+  <si>
+    <t>O que é a conexão de dispositivos físicos à internet?</t>
+  </si>
+  <si>
+    <t>O que é Internet das Coisas (IoT)?</t>
+  </si>
+  <si>
+    <t>O que é um dispositivo que detecta alterações físicas e gera dados?</t>
+  </si>
+  <si>
+    <t>O que é um sensor em IoT?</t>
+  </si>
+  <si>
+    <t>O que é o dispositivo que intermedeia a comunicação entre IoT e a internet?</t>
+  </si>
+  <si>
+    <t>O que é um gateway em IoT?</t>
+  </si>
+  <si>
+    <t>Como é implementada a segurança em dispositivos IoT?</t>
+  </si>
+  <si>
+    <t>O que é a segurança em IoT?</t>
+  </si>
+  <si>
+    <t>Teste de Software</t>
+  </si>
+  <si>
+    <t>O que é avaliar se o sistema funciona conforme os requisitos?</t>
+  </si>
+  <si>
+    <t>O que é testar um software?</t>
+  </si>
+  <si>
+    <t>O que é a validação de uma unidade isolada do código?</t>
+  </si>
+  <si>
+    <t>O que é um teste unitário?</t>
+  </si>
+  <si>
+    <t>O que é o teste realizado automaticamente por ferramentas?</t>
+  </si>
+  <si>
+    <t>O que é um teste automatizado?</t>
+  </si>
+  <si>
+    <t>Como os testes contribuem para a qualidade de software?</t>
+  </si>
+  <si>
+    <t>O que é a importância dos testes para qualidade de software?</t>
+  </si>
+  <si>
+    <t>O que é uma funcionalidade que o sistema deve executar?</t>
+  </si>
+  <si>
+    <t>O que é a técnica de coleta de informações diretamente com o cliente?</t>
+  </si>
+  <si>
+    <t>Qual é o papel do Design Thinking no levantamento de requisitos?</t>
+  </si>
+  <si>
+    <t>O que é a aplicação do Design Thinking no levantamento de requisitos?</t>
+  </si>
+  <si>
+    <t>Como o Scrum auxilia na gestão e levantamento de requisitos?</t>
+  </si>
+  <si>
+    <t>O que é o uso do Scrum para levantamento de requisitos?</t>
   </si>
 </sst>
 </file>
@@ -264,9 +402,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -276,16 +412,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -296,6 +483,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B1FF33A-C2C1-4F27-96D0-E1AE6BEC0E11}" name="Tabela1" displayName="Tabela1" ref="A1:D49" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:D49" xr:uid="{9B1FF33A-C2C1-4F27-96D0-E1AE6BEC0E11}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
+    <sortCondition ref="A2:A49"/>
+    <sortCondition ref="B2:B49"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0A22B6E9-1E21-47A1-9574-C2E67E9920CE}" name="Categoria"/>
+    <tableColumn id="2" xr3:uid="{6236DD89-16B7-4DC5-AE00-5B1416E3B477}" name="Valor"/>
+    <tableColumn id="3" xr3:uid="{D133A331-985E-44C1-8D43-00EF04F5BFE4}" name="Pergunta"/>
+    <tableColumn id="4" xr3:uid="{EADC2A5A-EF6D-4A5C-9B9F-E31C0972D81F}" name="Resposta"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -585,17 +789,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" customWidth="1"/>
     <col min="3" max="3" width="84" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -613,398 +818,681 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="4">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="4">
+        <v>100</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="4">
+        <v>150</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="4">
+        <v>200</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
         <v>100</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
         <v>150</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
         <v>200</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>150</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>200</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B12">
         <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B13">
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
+      <c r="C14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="8">
         <v>100</v>
       </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
+      <c r="C15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
         <v>150</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
+      <c r="C16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="8">
         <v>200</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
+      <c r="C17" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>150</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>200</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>200</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B27">
         <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B28">
         <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>200</v>
       </c>
       <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3">
+        <v>50</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3">
+        <v>100</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3">
+        <v>150</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3">
+        <v>200</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="5">
+        <v>50</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="5">
+        <v>100</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="5">
+        <v>150</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="5">
+        <v>200</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="5">
+        <v>50</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="5">
+        <v>100</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="5">
+        <v>150</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="5">
+        <v>200</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="6">
+        <v>50</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="6">
+        <v>100</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="6">
+        <v>150</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>64</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="6">
+        <v>200</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="7">
+        <v>50</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="7">
+        <v>100</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="7">
+        <v>150</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="7">
+        <v>200</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/perguntas_jeopardy.xlsx
+++ b/perguntas_jeopardy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1075293\Documents\Projeto_Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3BBEA5-6FD6-4C0E-AF47-29347C2C0832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D8D217-3346-4D2C-8DD8-89D420C6E5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,9 +187,6 @@
     <t>O que é o protocolo MQTT?</t>
   </si>
   <si>
-    <t>Como a arquitetura de hardware influencia o desempenho de dispositivos IoT?</t>
-  </si>
-  <si>
     <t>Levantamento de Requisitos</t>
   </si>
   <si>
@@ -229,15 +226,6 @@
     <t>Qual é a principal função de um roteador em uma rede?</t>
   </si>
   <si>
-    <t>Qual a função de um roteador?</t>
-  </si>
-  <si>
-    <t>O que é o protocolo leve de mensagens usado em IoT?</t>
-  </si>
-  <si>
-    <t>O que é a influência da arquitetura de hardware em IoT?</t>
-  </si>
-  <si>
     <t>O que é a parte do sistema que processa dados e lógica de negócio?</t>
   </si>
   <si>
@@ -356,6 +344,18 @@
   </si>
   <si>
     <t>O que é o uso do Scrum para levantamento de requisitos?</t>
+  </si>
+  <si>
+    <t>O que é propagar o sinal de rede?</t>
+  </si>
+  <si>
+    <t>Qual o impacto de uma arquitetura centralizada sobre a latência?</t>
+  </si>
+  <si>
+    <t>O que é aumento da latência?</t>
+  </si>
+  <si>
+    <t>Qual protocolo de mensagens em IoT utiliza o modelo publish/subscribe?</t>
   </si>
 </sst>
 </file>
@@ -412,23 +412,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -458,20 +465,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -486,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B1FF33A-C2C1-4F27-96D0-E1AE6BEC0E11}" name="Tabela1" displayName="Tabela1" ref="A1:D49" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B1FF33A-C2C1-4F27-96D0-E1AE6BEC0E11}" name="Tabela1" displayName="Tabela1" ref="A1:D49" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:D49" xr:uid="{9B1FF33A-C2C1-4F27-96D0-E1AE6BEC0E11}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
     <sortCondition ref="A2:A49"/>
@@ -792,7 +785,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -818,227 +811,227 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>50</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
         <v>100</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>150</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>200</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
-        <v>50</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>100</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>150</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>200</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B11">
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B12">
         <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B13">
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="8">
-        <v>50</v>
-      </c>
-      <c r="C14" s="8" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16">
+        <v>150</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+      <c r="C17" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="8">
-        <v>100</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="D17" t="s">
         <v>107</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="8">
-        <v>150</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="8">
-        <v>200</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1077,10 +1070,10 @@
         <v>150</v>
       </c>
       <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
         <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1161,10 +1154,10 @@
         <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1175,10 +1168,10 @@
         <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1189,10 +1182,10 @@
         <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1203,290 +1196,290 @@
         <v>200</v>
       </c>
       <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
         <v>78</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B32">
+        <v>150</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>200</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
         <v>50</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="3">
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
         <v>100</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="3">
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
         <v>150</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="3">
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37">
         <v>200</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="5">
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
         <v>50</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="5">
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
         <v>100</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="5">
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
         <v>150</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="5">
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
         <v>200</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="5">
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42">
         <v>50</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="5">
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43">
         <v>100</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="5">
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
         <v>150</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="5">
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
         <v>200</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="6">
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46">
         <v>50</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="6">
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47">
         <v>100</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="6">
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48">
         <v>150</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="6">
+      <c r="C48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49">
         <v>200</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="7">
-        <v>50</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="7">
+      <c r="C49" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="D49" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="7">
-        <v>150</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="7">
-        <v>200</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/perguntas_jeopardy.xlsx
+++ b/perguntas_jeopardy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1075293\Documents\Projeto_Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D8D217-3346-4D2C-8DD8-89D420C6E5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C1BD93-4119-4B9F-A69B-E8593847AFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -785,7 +785,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/perguntas_jeopardy.xlsx
+++ b/perguntas_jeopardy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1075293\Documents\Projeto_Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C1BD93-4119-4B9F-A69B-E8593847AFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A5BF73-D6D0-4C74-A0B2-9D3D6327AEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,12 +190,6 @@
     <t>Levantamento de Requisitos</t>
   </si>
   <si>
-    <t>O que é um requisito funcional?</t>
-  </si>
-  <si>
-    <t>O que é a técnica de entrevista no levantamento de requisitos?</t>
-  </si>
-  <si>
     <t>Diferença entre organização visual e organização de dados.</t>
   </si>
   <si>
@@ -235,39 +229,21 @@
     <t>O que é uma interface que permite comunicação entre sistemas?</t>
   </si>
   <si>
-    <t>O que é uma API?</t>
-  </si>
-  <si>
     <t>O que é o sistema que registra alterações feitas no código?</t>
   </si>
   <si>
-    <t>O que é o controle de versão?</t>
-  </si>
-  <si>
     <t>Quais práticas garantem segurança no desenvolvimento back-end?</t>
   </si>
   <si>
-    <t>O que é a segurança no desenvolvimento back-end?</t>
-  </si>
-  <si>
     <t>O que é a parte visual de uma aplicação com a qual o usuário interage?</t>
   </si>
   <si>
-    <t>O que é o Front-End?</t>
-  </si>
-  <si>
     <t>O que é a linguagem que adiciona interatividade a páginas web?</t>
   </si>
   <si>
-    <t>O que é o JavaScript?</t>
-  </si>
-  <si>
     <t>O que é a capacidade de adaptação de páginas a diferentes dispositivos?</t>
   </si>
   <si>
-    <t>O que é responsividade em páginas web?</t>
-  </si>
-  <si>
     <t>Como a experiência do usuário (UX) influencia o desenvolvimento Front-End?</t>
   </si>
   <si>
@@ -280,9 +256,6 @@
     <t>O que é a conexão de dispositivos físicos à internet?</t>
   </si>
   <si>
-    <t>O que é Internet das Coisas (IoT)?</t>
-  </si>
-  <si>
     <t>O que é um dispositivo que detecta alterações físicas e gera dados?</t>
   </si>
   <si>
@@ -313,21 +286,12 @@
     <t>O que é a validação de uma unidade isolada do código?</t>
   </si>
   <si>
-    <t>O que é um teste unitário?</t>
-  </si>
-  <si>
     <t>O que é o teste realizado automaticamente por ferramentas?</t>
   </si>
   <si>
-    <t>O que é um teste automatizado?</t>
-  </si>
-  <si>
     <t>Como os testes contribuem para a qualidade de software?</t>
   </si>
   <si>
-    <t>O que é a importância dos testes para qualidade de software?</t>
-  </si>
-  <si>
     <t>O que é uma funcionalidade que o sistema deve executar?</t>
   </si>
   <si>
@@ -356,6 +320,42 @@
   </si>
   <si>
     <t>Qual protocolo de mensagens em IoT utiliza o modelo publish/subscribe?</t>
+  </si>
+  <si>
+    <t>O que é teste automatizado?</t>
+  </si>
+  <si>
+    <t>O que é teste unitário?</t>
+  </si>
+  <si>
+    <t>Qual é a importância dos testes para qualidade de software?</t>
+  </si>
+  <si>
+    <t>O que é responsividade?</t>
+  </si>
+  <si>
+    <t>O que é Front-End?</t>
+  </si>
+  <si>
+    <t>O que é JavaScript?</t>
+  </si>
+  <si>
+    <t>O que é segurança?</t>
+  </si>
+  <si>
+    <t>O que é controle de versão?</t>
+  </si>
+  <si>
+    <t>O que é API?</t>
+  </si>
+  <si>
+    <t>O que é cabeamento de rede?</t>
+  </si>
+  <si>
+    <t>O que é requisito funcional?</t>
+  </si>
+  <si>
+    <t>O que é a técnica de entrevista?</t>
   </si>
 </sst>
 </file>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -818,7 +818,7 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
@@ -832,10 +832,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -846,7 +846,7 @@
         <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
         <v>54</v>
@@ -860,10 +860,10 @@
         <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -924,58 +924,58 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B11">
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B12">
         <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B13">
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -986,10 +986,10 @@
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1000,10 +1000,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1014,10 +1014,10 @@
         <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1028,10 +1028,10 @@
         <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1070,10 +1070,10 @@
         <v>150</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1154,10 +1154,10 @@
         <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1168,10 +1168,10 @@
         <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1182,10 +1182,10 @@
         <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1196,10 +1196,10 @@
         <v>200</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1210,10 +1210,10 @@
         <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1224,10 +1224,10 @@
         <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1238,10 +1238,10 @@
         <v>150</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1252,10 +1252,10 @@
         <v>200</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1378,7 +1378,7 @@
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
         <v>50</v>
@@ -1392,7 +1392,7 @@
         <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
         <v>51</v>
@@ -1406,10 +1406,10 @@
         <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1420,66 +1420,66 @@
         <v>200</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B46">
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B48">
         <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B49">
         <v>200</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
